--- a/data/leitner_model_16_hidden_layers_kfold_loss_0_0064_stainless_steel_304.xlsx
+++ b/data/leitner_model_16_hidden_layers_kfold_loss_0_0064_stainless_steel_304.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F532"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,26 @@
           <t>Error per Row</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Absolute Error per Row</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Std Absolute Error</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Outliers</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +504,18 @@
       <c r="F2" t="n">
         <v>-21.56411743164062</v>
       </c>
+      <c r="G2" t="n">
+        <v>21.56411743164062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13.68916416168213</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.75025463104248</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,6 +536,12 @@
       <c r="F3" t="n">
         <v>-18.15460205078125</v>
       </c>
+      <c r="G3" t="n">
+        <v>18.15460205078125</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +562,12 @@
       <c r="F4" t="n">
         <v>-14.99468994140625</v>
       </c>
+      <c r="G4" t="n">
+        <v>14.99468994140625</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +588,12 @@
       <c r="F5" t="n">
         <v>-12.08636474609375</v>
       </c>
+      <c r="G5" t="n">
+        <v>12.08636474609375</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -564,6 +614,12 @@
       <c r="F6" t="n">
         <v>-9.4276123046875</v>
       </c>
+      <c r="G6" t="n">
+        <v>9.4276123046875</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,6 +640,12 @@
       <c r="F7" t="n">
         <v>-7.012939453125</v>
       </c>
+      <c r="G7" t="n">
+        <v>7.012939453125</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -604,6 +666,12 @@
       <c r="F8" t="n">
         <v>-4.826873779296875</v>
       </c>
+      <c r="G8" t="n">
+        <v>4.826873779296875</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,6 +692,12 @@
       <c r="F9" t="n">
         <v>-2.853851318359375</v>
       </c>
+      <c r="G9" t="n">
+        <v>2.853851318359375</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +718,12 @@
       <c r="F10" t="n">
         <v>-1.077545166015625</v>
       </c>
+      <c r="G10" t="n">
+        <v>1.077545166015625</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -664,6 +744,12 @@
       <c r="F11" t="n">
         <v>0.51617431640625</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.51617431640625</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -684,6 +770,12 @@
       <c r="F12" t="n">
         <v>1.942474365234375</v>
       </c>
+      <c r="G12" t="n">
+        <v>1.942474365234375</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -704,6 +796,12 @@
       <c r="F13" t="n">
         <v>3.217742919921875</v>
       </c>
+      <c r="G13" t="n">
+        <v>3.217742919921875</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -724,6 +822,12 @@
       <c r="F14" t="n">
         <v>4.353515625</v>
       </c>
+      <c r="G14" t="n">
+        <v>4.353515625</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -744,6 +848,12 @@
       <c r="F15" t="n">
         <v>5.372955322265625</v>
       </c>
+      <c r="G15" t="n">
+        <v>5.372955322265625</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -764,6 +874,12 @@
       <c r="F16" t="n">
         <v>6.303466796875</v>
       </c>
+      <c r="G16" t="n">
+        <v>6.303466796875</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -784,6 +900,12 @@
       <c r="F17" t="n">
         <v>7.167724609375</v>
       </c>
+      <c r="G17" t="n">
+        <v>7.167724609375</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -804,6 +926,12 @@
       <c r="F18" t="n">
         <v>7.983612060546875</v>
       </c>
+      <c r="G18" t="n">
+        <v>7.983612060546875</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -824,6 +952,12 @@
       <c r="F19" t="n">
         <v>8.76104736328125</v>
       </c>
+      <c r="G19" t="n">
+        <v>8.76104736328125</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -844,6 +978,12 @@
       <c r="F20" t="n">
         <v>9.50286865234375</v>
       </c>
+      <c r="G20" t="n">
+        <v>9.50286865234375</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -864,6 +1004,12 @@
       <c r="F21" t="n">
         <v>10.20745849609375</v>
       </c>
+      <c r="G21" t="n">
+        <v>10.20745849609375</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -884,6 +1030,12 @@
       <c r="F22" t="n">
         <v>10.8695068359375</v>
       </c>
+      <c r="G22" t="n">
+        <v>10.8695068359375</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -904,6 +1056,12 @@
       <c r="F23" t="n">
         <v>11.48306274414062</v>
       </c>
+      <c r="G23" t="n">
+        <v>11.48306274414062</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -924,6 +1082,12 @@
       <c r="F24" t="n">
         <v>12.04458618164062</v>
       </c>
+      <c r="G24" t="n">
+        <v>12.04458618164062</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -944,6 +1108,12 @@
       <c r="F25" t="n">
         <v>12.55596923828125</v>
       </c>
+      <c r="G25" t="n">
+        <v>12.55596923828125</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -964,6 +1134,12 @@
       <c r="F26" t="n">
         <v>13.02093505859375</v>
       </c>
+      <c r="G26" t="n">
+        <v>13.02093505859375</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -984,6 +1160,12 @@
       <c r="F27" t="n">
         <v>13.44332885742188</v>
       </c>
+      <c r="G27" t="n">
+        <v>13.44332885742188</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1004,6 +1186,12 @@
       <c r="F28" t="n">
         <v>13.82901000976562</v>
       </c>
+      <c r="G28" t="n">
+        <v>13.82901000976562</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1024,6 +1212,12 @@
       <c r="F29" t="n">
         <v>14.17727661132812</v>
       </c>
+      <c r="G29" t="n">
+        <v>14.17727661132812</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1044,6 +1238,12 @@
       <c r="F30" t="n">
         <v>14.48526000976562</v>
       </c>
+      <c r="G30" t="n">
+        <v>14.48526000976562</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1064,6 +1264,12 @@
       <c r="F31" t="n">
         <v>14.75234985351562</v>
       </c>
+      <c r="G31" t="n">
+        <v>14.75234985351562</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1084,6 +1290,12 @@
       <c r="F32" t="n">
         <v>14.98239135742188</v>
       </c>
+      <c r="G32" t="n">
+        <v>14.98239135742188</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1104,6 +1316,12 @@
       <c r="F33" t="n">
         <v>15.18621826171875</v>
       </c>
+      <c r="G33" t="n">
+        <v>15.18621826171875</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1124,6 +1342,12 @@
       <c r="F34" t="n">
         <v>15.37783813476562</v>
       </c>
+      <c r="G34" t="n">
+        <v>15.37783813476562</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1144,6 +1368,12 @@
       <c r="F35" t="n">
         <v>15.56402587890625</v>
       </c>
+      <c r="G35" t="n">
+        <v>15.56402587890625</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1164,6 +1394,12 @@
       <c r="F36" t="n">
         <v>15.74844360351562</v>
       </c>
+      <c r="G36" t="n">
+        <v>15.74844360351562</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1184,6 +1420,12 @@
       <c r="F37" t="n">
         <v>15.93197631835938</v>
       </c>
+      <c r="G37" t="n">
+        <v>15.93197631835938</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1204,6 +1446,12 @@
       <c r="F38" t="n">
         <v>16.11346435546875</v>
       </c>
+      <c r="G38" t="n">
+        <v>16.11346435546875</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1224,6 +1472,12 @@
       <c r="F39" t="n">
         <v>16.28857421875</v>
       </c>
+      <c r="G39" t="n">
+        <v>16.28857421875</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1244,6 +1498,12 @@
       <c r="F40" t="n">
         <v>16.45477294921875</v>
       </c>
+      <c r="G40" t="n">
+        <v>16.45477294921875</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1264,6 +1524,12 @@
       <c r="F41" t="n">
         <v>16.62277221679688</v>
       </c>
+      <c r="G41" t="n">
+        <v>16.62277221679688</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1284,6 +1550,12 @@
       <c r="F42" t="n">
         <v>16.79977416992188</v>
       </c>
+      <c r="G42" t="n">
+        <v>16.79977416992188</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1304,6 +1576,12 @@
       <c r="F43" t="n">
         <v>16.98428344726562</v>
       </c>
+      <c r="G43" t="n">
+        <v>16.98428344726562</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1324,6 +1602,12 @@
       <c r="F44" t="n">
         <v>17.1741943359375</v>
       </c>
+      <c r="G44" t="n">
+        <v>17.1741943359375</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1344,6 +1628,12 @@
       <c r="F45" t="n">
         <v>17.36538696289062</v>
       </c>
+      <c r="G45" t="n">
+        <v>17.36538696289062</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1364,6 +1654,12 @@
       <c r="F46" t="n">
         <v>17.552001953125</v>
       </c>
+      <c r="G46" t="n">
+        <v>17.552001953125</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1384,6 +1680,12 @@
       <c r="F47" t="n">
         <v>17.72940063476562</v>
       </c>
+      <c r="G47" t="n">
+        <v>17.72940063476562</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1404,6 +1706,12 @@
       <c r="F48" t="n">
         <v>17.896728515625</v>
       </c>
+      <c r="G48" t="n">
+        <v>17.896728515625</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1424,6 +1732,12 @@
       <c r="F49" t="n">
         <v>18.05194091796875</v>
       </c>
+      <c r="G49" t="n">
+        <v>18.05194091796875</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1444,6 +1758,12 @@
       <c r="F50" t="n">
         <v>18.191650390625</v>
       </c>
+      <c r="G50" t="n">
+        <v>18.191650390625</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1464,6 +1784,12 @@
       <c r="F51" t="n">
         <v>18.3150634765625</v>
       </c>
+      <c r="G51" t="n">
+        <v>18.3150634765625</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1484,6 +1810,12 @@
       <c r="F52" t="n">
         <v>18.42587280273438</v>
       </c>
+      <c r="G52" t="n">
+        <v>18.42587280273438</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1504,6 +1836,12 @@
       <c r="F53" t="n">
         <v>18.52444458007812</v>
       </c>
+      <c r="G53" t="n">
+        <v>18.52444458007812</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1524,6 +1862,12 @@
       <c r="F54" t="n">
         <v>18.60610961914062</v>
       </c>
+      <c r="G54" t="n">
+        <v>18.60610961914062</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1544,6 +1888,12 @@
       <c r="F55" t="n">
         <v>18.66790771484375</v>
       </c>
+      <c r="G55" t="n">
+        <v>18.66790771484375</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1564,6 +1914,12 @@
       <c r="F56" t="n">
         <v>18.71319580078125</v>
       </c>
+      <c r="G56" t="n">
+        <v>18.71319580078125</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1584,6 +1940,12 @@
       <c r="F57" t="n">
         <v>18.74942016601562</v>
       </c>
+      <c r="G57" t="n">
+        <v>18.74942016601562</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1604,6 +1966,12 @@
       <c r="F58" t="n">
         <v>18.78607177734375</v>
       </c>
+      <c r="G58" t="n">
+        <v>18.78607177734375</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1624,6 +1992,12 @@
       <c r="F59" t="n">
         <v>18.83251953125</v>
       </c>
+      <c r="G59" t="n">
+        <v>18.83251953125</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1644,6 +2018,12 @@
       <c r="F60" t="n">
         <v>18.89178466796875</v>
       </c>
+      <c r="G60" t="n">
+        <v>18.89178466796875</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1664,6 +2044,12 @@
       <c r="F61" t="n">
         <v>18.961181640625</v>
       </c>
+      <c r="G61" t="n">
+        <v>18.961181640625</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1684,6 +2070,12 @@
       <c r="F62" t="n">
         <v>19.03485107421875</v>
       </c>
+      <c r="G62" t="n">
+        <v>19.03485107421875</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1704,6 +2096,12 @@
       <c r="F63" t="n">
         <v>19.1085205078125</v>
       </c>
+      <c r="G63" t="n">
+        <v>19.1085205078125</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1724,6 +2122,12 @@
       <c r="F64" t="n">
         <v>19.1839599609375</v>
       </c>
+      <c r="G64" t="n">
+        <v>19.1839599609375</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1744,6 +2148,12 @@
       <c r="F65" t="n">
         <v>19.26348876953125</v>
       </c>
+      <c r="G65" t="n">
+        <v>19.26348876953125</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1764,6 +2174,12 @@
       <c r="F66" t="n">
         <v>19.34890747070312</v>
       </c>
+      <c r="G66" t="n">
+        <v>19.34890747070312</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1784,6 +2200,12 @@
       <c r="F67" t="n">
         <v>19.44003295898438</v>
       </c>
+      <c r="G67" t="n">
+        <v>19.44003295898438</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1804,6 +2226,12 @@
       <c r="F68" t="n">
         <v>19.5345458984375</v>
       </c>
+      <c r="G68" t="n">
+        <v>19.5345458984375</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1824,6 +2252,12 @@
       <c r="F69" t="n">
         <v>19.627685546875</v>
       </c>
+      <c r="G69" t="n">
+        <v>19.627685546875</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1844,6 +2278,12 @@
       <c r="F70" t="n">
         <v>19.71575927734375</v>
       </c>
+      <c r="G70" t="n">
+        <v>19.71575927734375</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1864,6 +2304,12 @@
       <c r="F71" t="n">
         <v>19.79177856445312</v>
       </c>
+      <c r="G71" t="n">
+        <v>19.79177856445312</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1884,6 +2330,12 @@
       <c r="F72" t="n">
         <v>19.85211181640625</v>
       </c>
+      <c r="G72" t="n">
+        <v>19.85211181640625</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1904,6 +2356,12 @@
       <c r="F73" t="n">
         <v>19.89605712890625</v>
       </c>
+      <c r="G73" t="n">
+        <v>19.89605712890625</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1924,6 +2382,12 @@
       <c r="F74" t="n">
         <v>19.92694091796875</v>
       </c>
+      <c r="G74" t="n">
+        <v>19.92694091796875</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1944,6 +2408,12 @@
       <c r="F75" t="n">
         <v>19.947021484375</v>
       </c>
+      <c r="G75" t="n">
+        <v>19.947021484375</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1964,6 +2434,12 @@
       <c r="F76" t="n">
         <v>19.95626831054688</v>
       </c>
+      <c r="G76" t="n">
+        <v>19.95626831054688</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1984,6 +2460,12 @@
       <c r="F77" t="n">
         <v>19.95779418945312</v>
       </c>
+      <c r="G77" t="n">
+        <v>19.95779418945312</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2004,6 +2486,12 @@
       <c r="F78" t="n">
         <v>19.95755004882812</v>
       </c>
+      <c r="G78" t="n">
+        <v>19.95755004882812</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2024,6 +2512,12 @@
       <c r="F79" t="n">
         <v>19.95553588867188</v>
       </c>
+      <c r="G79" t="n">
+        <v>19.95553588867188</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2044,6 +2538,12 @@
       <c r="F80" t="n">
         <v>19.9522705078125</v>
       </c>
+      <c r="G80" t="n">
+        <v>19.9522705078125</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2064,6 +2564,12 @@
       <c r="F81" t="n">
         <v>19.95272827148438</v>
       </c>
+      <c r="G81" t="n">
+        <v>19.95272827148438</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2084,6 +2590,12 @@
       <c r="F82" t="n">
         <v>19.960205078125</v>
       </c>
+      <c r="G82" t="n">
+        <v>19.960205078125</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2104,6 +2616,12 @@
       <c r="F83" t="n">
         <v>19.97897338867188</v>
       </c>
+      <c r="G83" t="n">
+        <v>19.97897338867188</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2124,6 +2642,12 @@
       <c r="F84" t="n">
         <v>20.00881958007812</v>
       </c>
+      <c r="G84" t="n">
+        <v>20.00881958007812</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2144,6 +2668,12 @@
       <c r="F85" t="n">
         <v>20.04623413085938</v>
       </c>
+      <c r="G85" t="n">
+        <v>20.04623413085938</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2164,6 +2694,12 @@
       <c r="F86" t="n">
         <v>20.08901977539062</v>
       </c>
+      <c r="G86" t="n">
+        <v>20.08901977539062</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2184,6 +2720,12 @@
       <c r="F87" t="n">
         <v>20.13455200195312</v>
       </c>
+      <c r="G87" t="n">
+        <v>20.13455200195312</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2204,6 +2746,12 @@
       <c r="F88" t="n">
         <v>20.17880249023438</v>
       </c>
+      <c r="G88" t="n">
+        <v>20.17880249023438</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2224,6 +2772,12 @@
       <c r="F89" t="n">
         <v>20.22052001953125</v>
       </c>
+      <c r="G89" t="n">
+        <v>20.22052001953125</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2244,6 +2798,12 @@
       <c r="F90" t="n">
         <v>20.26153564453125</v>
       </c>
+      <c r="G90" t="n">
+        <v>20.26153564453125</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2264,6 +2824,12 @@
       <c r="F91" t="n">
         <v>20.30535888671875</v>
       </c>
+      <c r="G91" t="n">
+        <v>20.30535888671875</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2284,6 +2850,12 @@
       <c r="F92" t="n">
         <v>20.34774780273438</v>
       </c>
+      <c r="G92" t="n">
+        <v>20.34774780273438</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2304,6 +2876,12 @@
       <c r="F93" t="n">
         <v>20.3822021484375</v>
       </c>
+      <c r="G93" t="n">
+        <v>20.3822021484375</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2324,6 +2902,12 @@
       <c r="F94" t="n">
         <v>20.40310668945312</v>
       </c>
+      <c r="G94" t="n">
+        <v>20.40310668945312</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2344,6 +2928,12 @@
       <c r="F95" t="n">
         <v>20.40786743164062</v>
       </c>
+      <c r="G95" t="n">
+        <v>20.40786743164062</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2364,6 +2954,12 @@
       <c r="F96" t="n">
         <v>20.39599609375</v>
       </c>
+      <c r="G96" t="n">
+        <v>20.39599609375</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2384,6 +2980,12 @@
       <c r="F97" t="n">
         <v>20.37008666992188</v>
       </c>
+      <c r="G97" t="n">
+        <v>20.37008666992188</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2404,6 +3006,12 @@
       <c r="F98" t="n">
         <v>20.33273315429688</v>
       </c>
+      <c r="G98" t="n">
+        <v>20.33273315429688</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2424,6 +3032,12 @@
       <c r="F99" t="n">
         <v>20.29000854492188</v>
       </c>
+      <c r="G99" t="n">
+        <v>20.29000854492188</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2444,6 +3058,12 @@
       <c r="F100" t="n">
         <v>20.24713134765625</v>
       </c>
+      <c r="G100" t="n">
+        <v>20.24713134765625</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2464,6 +3084,12 @@
       <c r="F101" t="n">
         <v>20.205322265625</v>
       </c>
+      <c r="G101" t="n">
+        <v>20.205322265625</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2484,6 +3110,12 @@
       <c r="F102" t="n">
         <v>20.1641845703125</v>
       </c>
+      <c r="G102" t="n">
+        <v>20.1641845703125</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2504,6 +3136,12 @@
       <c r="F103" t="n">
         <v>20.12799072265625</v>
       </c>
+      <c r="G103" t="n">
+        <v>20.12799072265625</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2524,6 +3162,12 @@
       <c r="F104" t="n">
         <v>20.10101318359375</v>
       </c>
+      <c r="G104" t="n">
+        <v>20.10101318359375</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2544,6 +3188,12 @@
       <c r="F105" t="n">
         <v>20.0802001953125</v>
       </c>
+      <c r="G105" t="n">
+        <v>20.0802001953125</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2564,6 +3214,12 @@
       <c r="F106" t="n">
         <v>20.062255859375</v>
       </c>
+      <c r="G106" t="n">
+        <v>20.062255859375</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2584,6 +3240,12 @@
       <c r="F107" t="n">
         <v>20.04293823242188</v>
       </c>
+      <c r="G107" t="n">
+        <v>20.04293823242188</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2604,6 +3266,12 @@
       <c r="F108" t="n">
         <v>20.0223388671875</v>
       </c>
+      <c r="G108" t="n">
+        <v>20.0223388671875</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2624,6 +3292,12 @@
       <c r="F109" t="n">
         <v>20.00296020507812</v>
       </c>
+      <c r="G109" t="n">
+        <v>20.00296020507812</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2644,6 +3318,12 @@
       <c r="F110" t="n">
         <v>19.98284912109375</v>
       </c>
+      <c r="G110" t="n">
+        <v>19.98284912109375</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2664,6 +3344,12 @@
       <c r="F111" t="n">
         <v>19.96200561523438</v>
       </c>
+      <c r="G111" t="n">
+        <v>19.96200561523438</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2684,6 +3370,12 @@
       <c r="F112" t="n">
         <v>19.94329833984375</v>
       </c>
+      <c r="G112" t="n">
+        <v>19.94329833984375</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2704,6 +3396,12 @@
       <c r="F113" t="n">
         <v>19.92654418945312</v>
       </c>
+      <c r="G113" t="n">
+        <v>19.92654418945312</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2724,6 +3422,12 @@
       <c r="F114" t="n">
         <v>19.90866088867188</v>
       </c>
+      <c r="G114" t="n">
+        <v>19.90866088867188</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2744,6 +3448,12 @@
       <c r="F115" t="n">
         <v>19.88714599609375</v>
       </c>
+      <c r="G115" t="n">
+        <v>19.88714599609375</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2764,6 +3474,12 @@
       <c r="F116" t="n">
         <v>19.8602294921875</v>
       </c>
+      <c r="G116" t="n">
+        <v>19.8602294921875</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2784,6 +3500,12 @@
       <c r="F117" t="n">
         <v>19.83502197265625</v>
       </c>
+      <c r="G117" t="n">
+        <v>19.83502197265625</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2804,6 +3526,12 @@
       <c r="F118" t="n">
         <v>19.81591796875</v>
       </c>
+      <c r="G118" t="n">
+        <v>19.81591796875</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2824,6 +3552,12 @@
       <c r="F119" t="n">
         <v>19.80313110351562</v>
       </c>
+      <c r="G119" t="n">
+        <v>19.80313110351562</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2844,6 +3578,12 @@
       <c r="F120" t="n">
         <v>19.79180908203125</v>
       </c>
+      <c r="G120" t="n">
+        <v>19.79180908203125</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2864,6 +3604,12 @@
       <c r="F121" t="n">
         <v>19.77694702148438</v>
       </c>
+      <c r="G121" t="n">
+        <v>19.77694702148438</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2884,6 +3630,12 @@
       <c r="F122" t="n">
         <v>19.755615234375</v>
       </c>
+      <c r="G122" t="n">
+        <v>19.755615234375</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2904,6 +3656,12 @@
       <c r="F123" t="n">
         <v>19.72787475585938</v>
       </c>
+      <c r="G123" t="n">
+        <v>19.72787475585938</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2924,6 +3682,12 @@
       <c r="F124" t="n">
         <v>19.69622802734375</v>
       </c>
+      <c r="G124" t="n">
+        <v>19.69622802734375</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2944,6 +3708,12 @@
       <c r="F125" t="n">
         <v>19.6640625</v>
       </c>
+      <c r="G125" t="n">
+        <v>19.6640625</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2964,6 +3734,12 @@
       <c r="F126" t="n">
         <v>19.63134765625</v>
       </c>
+      <c r="G126" t="n">
+        <v>19.63134765625</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2984,6 +3760,12 @@
       <c r="F127" t="n">
         <v>19.59857177734375</v>
       </c>
+      <c r="G127" t="n">
+        <v>19.59857177734375</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3004,6 +3786,12 @@
       <c r="F128" t="n">
         <v>19.568115234375</v>
       </c>
+      <c r="G128" t="n">
+        <v>19.568115234375</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3024,6 +3812,12 @@
       <c r="F129" t="n">
         <v>19.54498291015625</v>
       </c>
+      <c r="G129" t="n">
+        <v>19.54498291015625</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3044,6 +3838,12 @@
       <c r="F130" t="n">
         <v>19.52923583984375</v>
       </c>
+      <c r="G130" t="n">
+        <v>19.52923583984375</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3064,6 +3864,12 @@
       <c r="F131" t="n">
         <v>19.5135498046875</v>
       </c>
+      <c r="G131" t="n">
+        <v>19.5135498046875</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3084,6 +3890,12 @@
       <c r="F132" t="n">
         <v>19.49462890625</v>
       </c>
+      <c r="G132" t="n">
+        <v>19.49462890625</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3104,6 +3916,12 @@
       <c r="F133" t="n">
         <v>19.46978759765625</v>
       </c>
+      <c r="G133" t="n">
+        <v>19.46978759765625</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3124,6 +3942,12 @@
       <c r="F134" t="n">
         <v>19.4378662109375</v>
       </c>
+      <c r="G134" t="n">
+        <v>19.4378662109375</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3144,6 +3968,12 @@
       <c r="F135" t="n">
         <v>19.39727783203125</v>
       </c>
+      <c r="G135" t="n">
+        <v>19.39727783203125</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3164,6 +3994,12 @@
       <c r="F136" t="n">
         <v>19.3438720703125</v>
       </c>
+      <c r="G136" t="n">
+        <v>19.3438720703125</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3184,6 +4020,12 @@
       <c r="F137" t="n">
         <v>19.2742919921875</v>
       </c>
+      <c r="G137" t="n">
+        <v>19.2742919921875</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3204,6 +4046,12 @@
       <c r="F138" t="n">
         <v>19.1973876953125</v>
       </c>
+      <c r="G138" t="n">
+        <v>19.1973876953125</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3224,6 +4072,12 @@
       <c r="F139" t="n">
         <v>19.12139892578125</v>
       </c>
+      <c r="G139" t="n">
+        <v>19.12139892578125</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3244,6 +4098,12 @@
       <c r="F140" t="n">
         <v>19.04833984375</v>
       </c>
+      <c r="G140" t="n">
+        <v>19.04833984375</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3264,6 +4124,12 @@
       <c r="F141" t="n">
         <v>18.9832763671875</v>
       </c>
+      <c r="G141" t="n">
+        <v>18.9832763671875</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3284,6 +4150,12 @@
       <c r="F142" t="n">
         <v>18.9312744140625</v>
       </c>
+      <c r="G142" t="n">
+        <v>18.9312744140625</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3304,6 +4176,12 @@
       <c r="F143" t="n">
         <v>18.89703369140625</v>
       </c>
+      <c r="G143" t="n">
+        <v>18.89703369140625</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3324,6 +4202,12 @@
       <c r="F144" t="n">
         <v>18.87908935546875</v>
       </c>
+      <c r="G144" t="n">
+        <v>18.87908935546875</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3344,6 +4228,12 @@
       <c r="F145" t="n">
         <v>18.86962890625</v>
       </c>
+      <c r="G145" t="n">
+        <v>18.86962890625</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3364,6 +4254,12 @@
       <c r="F146" t="n">
         <v>18.85931396484375</v>
       </c>
+      <c r="G146" t="n">
+        <v>18.85931396484375</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3384,6 +4280,12 @@
       <c r="F147" t="n">
         <v>18.921630859375</v>
       </c>
+      <c r="G147" t="n">
+        <v>18.921630859375</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3404,6 +4306,12 @@
       <c r="F148" t="n">
         <v>19.029541015625</v>
       </c>
+      <c r="G148" t="n">
+        <v>19.029541015625</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3424,6 +4332,12 @@
       <c r="F149" t="n">
         <v>19.12542724609375</v>
       </c>
+      <c r="G149" t="n">
+        <v>19.12542724609375</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3444,6 +4358,12 @@
       <c r="F150" t="n">
         <v>19.2088623046875</v>
       </c>
+      <c r="G150" t="n">
+        <v>19.2088623046875</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3464,6 +4384,12 @@
       <c r="F151" t="n">
         <v>19.281005859375</v>
       </c>
+      <c r="G151" t="n">
+        <v>19.281005859375</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3484,6 +4410,12 @@
       <c r="F152" t="n">
         <v>19.34454345703125</v>
       </c>
+      <c r="G152" t="n">
+        <v>19.34454345703125</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3504,6 +4436,12 @@
       <c r="F153" t="n">
         <v>19.403076171875</v>
       </c>
+      <c r="G153" t="n">
+        <v>19.403076171875</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3524,6 +4462,12 @@
       <c r="F154" t="n">
         <v>19.456787109375</v>
       </c>
+      <c r="G154" t="n">
+        <v>19.456787109375</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3544,6 +4488,12 @@
       <c r="F155" t="n">
         <v>19.50592041015625</v>
       </c>
+      <c r="G155" t="n">
+        <v>19.50592041015625</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3564,6 +4514,12 @@
       <c r="F156" t="n">
         <v>19.54864501953125</v>
       </c>
+      <c r="G156" t="n">
+        <v>19.54864501953125</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3584,6 +4540,12 @@
       <c r="F157" t="n">
         <v>19.5870361328125</v>
       </c>
+      <c r="G157" t="n">
+        <v>19.5870361328125</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3604,6 +4566,12 @@
       <c r="F158" t="n">
         <v>19.70880126953125</v>
       </c>
+      <c r="G158" t="n">
+        <v>19.70880126953125</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3624,6 +4592,12 @@
       <c r="F159" t="n">
         <v>19.89263916015625</v>
       </c>
+      <c r="G159" t="n">
+        <v>19.89263916015625</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3644,6 +4618,12 @@
       <c r="F160" t="n">
         <v>20.0889892578125</v>
       </c>
+      <c r="G160" t="n">
+        <v>20.0889892578125</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3664,6 +4644,12 @@
       <c r="F161" t="n">
         <v>20.2955322265625</v>
       </c>
+      <c r="G161" t="n">
+        <v>20.2955322265625</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3684,6 +4670,12 @@
       <c r="F162" t="n">
         <v>20.50665283203125</v>
       </c>
+      <c r="G162" t="n">
+        <v>20.50665283203125</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3704,6 +4696,12 @@
       <c r="F163" t="n">
         <v>20.7164306640625</v>
       </c>
+      <c r="G163" t="n">
+        <v>20.7164306640625</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3724,6 +4722,12 @@
       <c r="F164" t="n">
         <v>20.9285888671875</v>
       </c>
+      <c r="G164" t="n">
+        <v>20.9285888671875</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3744,6 +4748,12 @@
       <c r="F165" t="n">
         <v>21.1427001953125</v>
       </c>
+      <c r="G165" t="n">
+        <v>21.1427001953125</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3764,6 +4774,12 @@
       <c r="F166" t="n">
         <v>21.35540771484375</v>
       </c>
+      <c r="G166" t="n">
+        <v>21.35540771484375</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3784,6 +4800,12 @@
       <c r="F167" t="n">
         <v>21.57159423828125</v>
       </c>
+      <c r="G167" t="n">
+        <v>21.57159423828125</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3804,6 +4826,12 @@
       <c r="F168" t="n">
         <v>21.7891845703125</v>
       </c>
+      <c r="G168" t="n">
+        <v>21.7891845703125</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3824,6 +4852,12 @@
       <c r="F169" t="n">
         <v>22.00164794921875</v>
       </c>
+      <c r="G169" t="n">
+        <v>22.00164794921875</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3844,6 +4878,12 @@
       <c r="F170" t="n">
         <v>22.2120361328125</v>
       </c>
+      <c r="G170" t="n">
+        <v>22.2120361328125</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3864,6 +4904,12 @@
       <c r="F171" t="n">
         <v>22.42510986328125</v>
       </c>
+      <c r="G171" t="n">
+        <v>22.42510986328125</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3884,6 +4930,12 @@
       <c r="F172" t="n">
         <v>22.64312744140625</v>
       </c>
+      <c r="G172" t="n">
+        <v>22.64312744140625</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3904,6 +4956,12 @@
       <c r="F173" t="n">
         <v>22.8646240234375</v>
       </c>
+      <c r="G173" t="n">
+        <v>22.8646240234375</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3924,6 +4982,12 @@
       <c r="F174" t="n">
         <v>23.0850830078125</v>
       </c>
+      <c r="G174" t="n">
+        <v>23.0850830078125</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3944,6 +5008,12 @@
       <c r="F175" t="n">
         <v>23.30108642578125</v>
       </c>
+      <c r="G175" t="n">
+        <v>23.30108642578125</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3964,6 +5034,12 @@
       <c r="F176" t="n">
         <v>23.51373291015625</v>
       </c>
+      <c r="G176" t="n">
+        <v>23.51373291015625</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3984,6 +5060,12 @@
       <c r="F177" t="n">
         <v>23.72808837890625</v>
       </c>
+      <c r="G177" t="n">
+        <v>23.72808837890625</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4004,6 +5086,12 @@
       <c r="F178" t="n">
         <v>23.94573974609375</v>
       </c>
+      <c r="G178" t="n">
+        <v>23.94573974609375</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4024,6 +5112,12 @@
       <c r="F179" t="n">
         <v>24.168212890625</v>
       </c>
+      <c r="G179" t="n">
+        <v>24.168212890625</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4044,6 +5138,12 @@
       <c r="F180" t="n">
         <v>24.3909912109375</v>
       </c>
+      <c r="G180" t="n">
+        <v>24.3909912109375</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4064,6 +5164,12 @@
       <c r="F181" t="n">
         <v>24.606201171875</v>
       </c>
+      <c r="G181" t="n">
+        <v>24.606201171875</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4084,6 +5190,12 @@
       <c r="F182" t="n">
         <v>24.8074951171875</v>
       </c>
+      <c r="G182" t="n">
+        <v>24.8074951171875</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4104,6 +5216,12 @@
       <c r="F183" t="n">
         <v>24.99444580078125</v>
       </c>
+      <c r="G183" t="n">
+        <v>24.99444580078125</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4124,6 +5242,12 @@
       <c r="F184" t="n">
         <v>25.16741943359375</v>
       </c>
+      <c r="G184" t="n">
+        <v>25.16741943359375</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4144,6 +5268,12 @@
       <c r="F185" t="n">
         <v>25.32696533203125</v>
       </c>
+      <c r="G185" t="n">
+        <v>25.32696533203125</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4164,6 +5294,12 @@
       <c r="F186" t="n">
         <v>25.47021484375</v>
       </c>
+      <c r="G186" t="n">
+        <v>25.47021484375</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4184,6 +5320,12 @@
       <c r="F187" t="n">
         <v>25.59136962890625</v>
       </c>
+      <c r="G187" t="n">
+        <v>25.59136962890625</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4204,6 +5346,12 @@
       <c r="F188" t="n">
         <v>25.70416259765625</v>
       </c>
+      <c r="G188" t="n">
+        <v>25.70416259765625</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4224,6 +5372,12 @@
       <c r="F189" t="n">
         <v>25.8275146484375</v>
       </c>
+      <c r="G189" t="n">
+        <v>25.8275146484375</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4244,6 +5398,12 @@
       <c r="F190" t="n">
         <v>25.9852294921875</v>
       </c>
+      <c r="G190" t="n">
+        <v>25.9852294921875</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4264,6 +5424,12 @@
       <c r="F191" t="n">
         <v>26.17431640625</v>
       </c>
+      <c r="G191" t="n">
+        <v>26.17431640625</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4284,6 +5450,12 @@
       <c r="F192" t="n">
         <v>26.40631103515625</v>
       </c>
+      <c r="G192" t="n">
+        <v>26.40631103515625</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4304,6 +5476,12 @@
       <c r="F193" t="n">
         <v>26.59075927734375</v>
       </c>
+      <c r="G193" t="n">
+        <v>26.59075927734375</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4324,6 +5502,12 @@
       <c r="F194" t="n">
         <v>26.75250244140625</v>
       </c>
+      <c r="G194" t="n">
+        <v>26.75250244140625</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4344,6 +5528,12 @@
       <c r="F195" t="n">
         <v>26.906494140625</v>
       </c>
+      <c r="G195" t="n">
+        <v>26.906494140625</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4364,6 +5554,12 @@
       <c r="F196" t="n">
         <v>27.05841064453125</v>
       </c>
+      <c r="G196" t="n">
+        <v>27.05841064453125</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4384,6 +5580,12 @@
       <c r="F197" t="n">
         <v>27.21014404296875</v>
       </c>
+      <c r="G197" t="n">
+        <v>27.21014404296875</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4404,6 +5606,12 @@
       <c r="F198" t="n">
         <v>27.3621826171875</v>
       </c>
+      <c r="G198" t="n">
+        <v>27.3621826171875</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4424,6 +5632,12 @@
       <c r="F199" t="n">
         <v>27.51385498046875</v>
       </c>
+      <c r="G199" t="n">
+        <v>27.51385498046875</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4444,6 +5658,12 @@
       <c r="F200" t="n">
         <v>27.66412353515625</v>
       </c>
+      <c r="G200" t="n">
+        <v>27.66412353515625</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -4464,6 +5684,12 @@
       <c r="F201" t="n">
         <v>27.8114013671875</v>
       </c>
+      <c r="G201" t="n">
+        <v>27.8114013671875</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4484,6 +5710,12 @@
       <c r="F202" t="n">
         <v>27.95452880859375</v>
       </c>
+      <c r="G202" t="n">
+        <v>27.95452880859375</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4504,6 +5736,12 @@
       <c r="F203" t="n">
         <v>28.09228515625</v>
       </c>
+      <c r="G203" t="n">
+        <v>28.09228515625</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4524,6 +5762,12 @@
       <c r="F204" t="n">
         <v>28.2244873046875</v>
       </c>
+      <c r="G204" t="n">
+        <v>28.2244873046875</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4544,6 +5788,12 @@
       <c r="F205" t="n">
         <v>-0.1212310791015625</v>
       </c>
+      <c r="G205" t="n">
+        <v>0.1212310791015625</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4564,6 +5814,12 @@
       <c r="F206" t="n">
         <v>9.17510986328125</v>
       </c>
+      <c r="G206" t="n">
+        <v>9.17510986328125</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4584,6 +5840,12 @@
       <c r="F207" t="n">
         <v>15.03231811523438</v>
       </c>
+      <c r="G207" t="n">
+        <v>15.03231811523438</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -4604,6 +5866,12 @@
       <c r="F208" t="n">
         <v>18.89578247070312</v>
       </c>
+      <c r="G208" t="n">
+        <v>18.89578247070312</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4624,6 +5892,12 @@
       <c r="F209" t="n">
         <v>20.80987548828125</v>
       </c>
+      <c r="G209" t="n">
+        <v>20.80987548828125</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4644,6 +5918,12 @@
       <c r="F210" t="n">
         <v>22.01513671875</v>
       </c>
+      <c r="G210" t="n">
+        <v>22.01513671875</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4664,6 +5944,12 @@
       <c r="F211" t="n">
         <v>22.61370849609375</v>
       </c>
+      <c r="G211" t="n">
+        <v>22.61370849609375</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4684,6 +5970,12 @@
       <c r="F212" t="n">
         <v>22.70108032226562</v>
       </c>
+      <c r="G212" t="n">
+        <v>22.70108032226562</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4704,6 +5996,12 @@
       <c r="F213" t="n">
         <v>23.3446044921875</v>
       </c>
+      <c r="G213" t="n">
+        <v>23.3446044921875</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4724,6 +6022,12 @@
       <c r="F214" t="n">
         <v>24.02349853515625</v>
       </c>
+      <c r="G214" t="n">
+        <v>24.02349853515625</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4744,6 +6048,12 @@
       <c r="F215" t="n">
         <v>24.60040283203125</v>
       </c>
+      <c r="G215" t="n">
+        <v>24.60040283203125</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4764,6 +6074,12 @@
       <c r="F216" t="n">
         <v>25.4962158203125</v>
       </c>
+      <c r="G216" t="n">
+        <v>25.4962158203125</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4784,6 +6100,12 @@
       <c r="F217" t="n">
         <v>26.17266845703125</v>
       </c>
+      <c r="G217" t="n">
+        <v>26.17266845703125</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4804,6 +6126,12 @@
       <c r="F218" t="n">
         <v>26.52322387695312</v>
       </c>
+      <c r="G218" t="n">
+        <v>26.52322387695312</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4824,6 +6152,12 @@
       <c r="F219" t="n">
         <v>26.81536865234375</v>
       </c>
+      <c r="G219" t="n">
+        <v>26.81536865234375</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4844,6 +6178,12 @@
       <c r="F220" t="n">
         <v>26.43807983398438</v>
       </c>
+      <c r="G220" t="n">
+        <v>26.43807983398438</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4864,6 +6204,12 @@
       <c r="F221" t="n">
         <v>25.09124755859375</v>
       </c>
+      <c r="G221" t="n">
+        <v>25.09124755859375</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4884,6 +6230,12 @@
       <c r="F222" t="n">
         <v>23.92807006835938</v>
       </c>
+      <c r="G222" t="n">
+        <v>23.92807006835938</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4904,6 +6256,12 @@
       <c r="F223" t="n">
         <v>23.60092163085938</v>
       </c>
+      <c r="G223" t="n">
+        <v>23.60092163085938</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4924,6 +6282,12 @@
       <c r="F224" t="n">
         <v>23.3277587890625</v>
       </c>
+      <c r="G224" t="n">
+        <v>23.3277587890625</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4944,6 +6308,12 @@
       <c r="F225" t="n">
         <v>22.7811279296875</v>
       </c>
+      <c r="G225" t="n">
+        <v>22.7811279296875</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4964,6 +6334,12 @@
       <c r="F226" t="n">
         <v>22.40386962890625</v>
       </c>
+      <c r="G226" t="n">
+        <v>22.40386962890625</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4984,6 +6360,12 @@
       <c r="F227" t="n">
         <v>21.40469360351562</v>
       </c>
+      <c r="G227" t="n">
+        <v>21.40469360351562</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5004,6 +6386,12 @@
       <c r="F228" t="n">
         <v>20.9083251953125</v>
       </c>
+      <c r="G228" t="n">
+        <v>20.9083251953125</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5024,6 +6412,12 @@
       <c r="F229" t="n">
         <v>21.12057495117188</v>
       </c>
+      <c r="G229" t="n">
+        <v>21.12057495117188</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5044,6 +6438,12 @@
       <c r="F230" t="n">
         <v>21.10711669921875</v>
       </c>
+      <c r="G230" t="n">
+        <v>21.10711669921875</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5064,6 +6464,12 @@
       <c r="F231" t="n">
         <v>20.59848022460938</v>
       </c>
+      <c r="G231" t="n">
+        <v>20.59848022460938</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5084,6 +6490,12 @@
       <c r="F232" t="n">
         <v>19.12710571289062</v>
       </c>
+      <c r="G232" t="n">
+        <v>19.12710571289062</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5104,6 +6516,12 @@
       <c r="F233" t="n">
         <v>17.16259765625</v>
       </c>
+      <c r="G233" t="n">
+        <v>17.16259765625</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5124,6 +6542,12 @@
       <c r="F234" t="n">
         <v>14.76876831054688</v>
       </c>
+      <c r="G234" t="n">
+        <v>14.76876831054688</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5144,6 +6568,12 @@
       <c r="F235" t="n">
         <v>12.90341186523438</v>
       </c>
+      <c r="G235" t="n">
+        <v>12.90341186523438</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5164,6 +6594,12 @@
       <c r="F236" t="n">
         <v>11.64193725585938</v>
       </c>
+      <c r="G236" t="n">
+        <v>11.64193725585938</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5184,6 +6620,12 @@
       <c r="F237" t="n">
         <v>10.61410522460938</v>
       </c>
+      <c r="G237" t="n">
+        <v>10.61410522460938</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5204,6 +6646,12 @@
       <c r="F238" t="n">
         <v>9.935699462890625</v>
       </c>
+      <c r="G238" t="n">
+        <v>9.935699462890625</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5224,6 +6672,12 @@
       <c r="F239" t="n">
         <v>8.685638427734375</v>
       </c>
+      <c r="G239" t="n">
+        <v>8.685638427734375</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5244,6 +6698,12 @@
       <c r="F240" t="n">
         <v>7.66552734375</v>
       </c>
+      <c r="G240" t="n">
+        <v>7.66552734375</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5264,6 +6724,12 @@
       <c r="F241" t="n">
         <v>6.104339599609375</v>
       </c>
+      <c r="G241" t="n">
+        <v>6.104339599609375</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5284,6 +6750,12 @@
       <c r="F242" t="n">
         <v>4.50848388671875</v>
       </c>
+      <c r="G242" t="n">
+        <v>4.50848388671875</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5304,6 +6776,12 @@
       <c r="F243" t="n">
         <v>3.54376220703125</v>
       </c>
+      <c r="G243" t="n">
+        <v>3.54376220703125</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -5324,6 +6802,12 @@
       <c r="F244" t="n">
         <v>2.648468017578125</v>
       </c>
+      <c r="G244" t="n">
+        <v>2.648468017578125</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -5344,6 +6828,12 @@
       <c r="F245" t="n">
         <v>1.97113037109375</v>
       </c>
+      <c r="G245" t="n">
+        <v>1.97113037109375</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -5364,6 +6854,12 @@
       <c r="F246" t="n">
         <v>1.431365966796875</v>
       </c>
+      <c r="G246" t="n">
+        <v>1.431365966796875</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -5384,6 +6880,12 @@
       <c r="F247" t="n">
         <v>0.991790771484375</v>
       </c>
+      <c r="G247" t="n">
+        <v>0.991790771484375</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -5404,6 +6906,12 @@
       <c r="F248" t="n">
         <v>0.825653076171875</v>
       </c>
+      <c r="G248" t="n">
+        <v>0.825653076171875</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -5424,6 +6932,12 @@
       <c r="F249" t="n">
         <v>0.6395263671875</v>
       </c>
+      <c r="G249" t="n">
+        <v>0.6395263671875</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -5444,6 +6958,12 @@
       <c r="F250" t="n">
         <v>0.404327392578125</v>
       </c>
+      <c r="G250" t="n">
+        <v>0.404327392578125</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -5464,6 +6984,12 @@
       <c r="F251" t="n">
         <v>0.38916015625</v>
       </c>
+      <c r="G251" t="n">
+        <v>0.38916015625</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -5484,6 +7010,12 @@
       <c r="F252" t="n">
         <v>0.7027587890625</v>
       </c>
+      <c r="G252" t="n">
+        <v>0.7027587890625</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -5504,6 +7036,12 @@
       <c r="F253" t="n">
         <v>0.797698974609375</v>
       </c>
+      <c r="G253" t="n">
+        <v>0.797698974609375</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -5524,6 +7062,12 @@
       <c r="F254" t="n">
         <v>0.25152587890625</v>
       </c>
+      <c r="G254" t="n">
+        <v>0.25152587890625</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -5544,6 +7088,12 @@
       <c r="F255" t="n">
         <v>-0.79913330078125</v>
       </c>
+      <c r="G255" t="n">
+        <v>0.79913330078125</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -5564,6 +7114,12 @@
       <c r="F256" t="n">
         <v>-2.01922607421875</v>
       </c>
+      <c r="G256" t="n">
+        <v>2.01922607421875</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -5584,6 +7140,12 @@
       <c r="F257" t="n">
         <v>-2.677764892578125</v>
       </c>
+      <c r="G257" t="n">
+        <v>2.677764892578125</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -5604,6 +7166,12 @@
       <c r="F258" t="n">
         <v>-2.816741943359375</v>
       </c>
+      <c r="G258" t="n">
+        <v>2.816741943359375</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -5624,6 +7192,12 @@
       <c r="F259" t="n">
         <v>-3.011383056640625</v>
       </c>
+      <c r="G259" t="n">
+        <v>3.011383056640625</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -5644,6 +7218,12 @@
       <c r="F260" t="n">
         <v>-3.35614013671875</v>
       </c>
+      <c r="G260" t="n">
+        <v>3.35614013671875</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -5664,6 +7244,12 @@
       <c r="F261" t="n">
         <v>-4.28594970703125</v>
       </c>
+      <c r="G261" t="n">
+        <v>4.28594970703125</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -5684,6 +7270,12 @@
       <c r="F262" t="n">
         <v>-5.193359375</v>
       </c>
+      <c r="G262" t="n">
+        <v>5.193359375</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5704,6 +7296,12 @@
       <c r="F263" t="n">
         <v>-6.064208984375</v>
       </c>
+      <c r="G263" t="n">
+        <v>6.064208984375</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5724,6 +7322,12 @@
       <c r="F264" t="n">
         <v>-6.63134765625</v>
       </c>
+      <c r="G264" t="n">
+        <v>6.63134765625</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -5744,6 +7348,12 @@
       <c r="F265" t="n">
         <v>-6.510284423828125</v>
       </c>
+      <c r="G265" t="n">
+        <v>6.510284423828125</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -5764,6 +7374,12 @@
       <c r="F266" t="n">
         <v>-5.884033203125</v>
       </c>
+      <c r="G266" t="n">
+        <v>5.884033203125</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -5784,6 +7400,12 @@
       <c r="F267" t="n">
         <v>-5.474578857421875</v>
       </c>
+      <c r="G267" t="n">
+        <v>5.474578857421875</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -5804,6 +7426,12 @@
       <c r="F268" t="n">
         <v>-5.574951171875</v>
       </c>
+      <c r="G268" t="n">
+        <v>5.574951171875</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -5824,6 +7452,12 @@
       <c r="F269" t="n">
         <v>-6.03448486328125</v>
       </c>
+      <c r="G269" t="n">
+        <v>6.03448486328125</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5844,6 +7478,12 @@
       <c r="F270" t="n">
         <v>-5.998504638671875</v>
       </c>
+      <c r="G270" t="n">
+        <v>5.998504638671875</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5864,6 +7504,12 @@
       <c r="F271" t="n">
         <v>-5.45989990234375</v>
       </c>
+      <c r="G271" t="n">
+        <v>5.45989990234375</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5884,6 +7530,12 @@
       <c r="F272" t="n">
         <v>-4.6019287109375</v>
       </c>
+      <c r="G272" t="n">
+        <v>4.6019287109375</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5904,6 +7556,12 @@
       <c r="F273" t="n">
         <v>-4.101806640625</v>
       </c>
+      <c r="G273" t="n">
+        <v>4.101806640625</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5924,6 +7582,12 @@
       <c r="F274" t="n">
         <v>-3.1065673828125</v>
       </c>
+      <c r="G274" t="n">
+        <v>3.1065673828125</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5944,6 +7608,12 @@
       <c r="F275" t="n">
         <v>-2.73345947265625</v>
       </c>
+      <c r="G275" t="n">
+        <v>2.73345947265625</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5964,6 +7634,12 @@
       <c r="F276" t="n">
         <v>-2.484710693359375</v>
       </c>
+      <c r="G276" t="n">
+        <v>2.484710693359375</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5984,6 +7660,12 @@
       <c r="F277" t="n">
         <v>-1.834259033203125</v>
       </c>
+      <c r="G277" t="n">
+        <v>1.834259033203125</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6004,6 +7686,12 @@
       <c r="F278" t="n">
         <v>-0.769195556640625</v>
       </c>
+      <c r="G278" t="n">
+        <v>0.769195556640625</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6024,6 +7712,12 @@
       <c r="F279" t="n">
         <v>0.93511962890625</v>
       </c>
+      <c r="G279" t="n">
+        <v>0.93511962890625</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6044,6 +7738,12 @@
       <c r="F280" t="n">
         <v>3.01715087890625</v>
       </c>
+      <c r="G280" t="n">
+        <v>3.01715087890625</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6064,6 +7764,12 @@
       <c r="F281" t="n">
         <v>5.12689208984375</v>
       </c>
+      <c r="G281" t="n">
+        <v>5.12689208984375</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6084,6 +7790,12 @@
       <c r="F282" t="n">
         <v>7.6126708984375</v>
       </c>
+      <c r="G282" t="n">
+        <v>7.6126708984375</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6104,6 +7816,12 @@
       <c r="F283" t="n">
         <v>10.20159912109375</v>
       </c>
+      <c r="G283" t="n">
+        <v>10.20159912109375</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6124,6 +7842,12 @@
       <c r="F284" t="n">
         <v>2.299911499023438</v>
       </c>
+      <c r="G284" t="n">
+        <v>2.299911499023438</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6144,6 +7868,12 @@
       <c r="F285" t="n">
         <v>12.52877807617188</v>
       </c>
+      <c r="G285" t="n">
+        <v>12.52877807617188</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6164,6 +7894,12 @@
       <c r="F286" t="n">
         <v>19.58291625976562</v>
       </c>
+      <c r="G286" t="n">
+        <v>19.58291625976562</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6184,6 +7920,12 @@
       <c r="F287" t="n">
         <v>24.37300109863281</v>
       </c>
+      <c r="G287" t="n">
+        <v>24.37300109863281</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -6204,6 +7946,12 @@
       <c r="F288" t="n">
         <v>27.14775085449219</v>
       </c>
+      <c r="G288" t="n">
+        <v>27.14775085449219</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -6224,6 +7972,12 @@
       <c r="F289" t="n">
         <v>28.68009948730469</v>
       </c>
+      <c r="G289" t="n">
+        <v>28.68009948730469</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -6244,6 +7998,12 @@
       <c r="F290" t="n">
         <v>29.3416748046875</v>
       </c>
+      <c r="G290" t="n">
+        <v>29.3416748046875</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -6264,6 +8024,12 @@
       <c r="F291" t="n">
         <v>29.59054565429688</v>
       </c>
+      <c r="G291" t="n">
+        <v>29.59054565429688</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -6284,6 +8050,12 @@
       <c r="F292" t="n">
         <v>29.70481872558594</v>
       </c>
+      <c r="G292" t="n">
+        <v>29.70481872558594</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -6304,6 +8076,12 @@
       <c r="F293" t="n">
         <v>29.78909301757812</v>
       </c>
+      <c r="G293" t="n">
+        <v>29.78909301757812</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -6324,6 +8102,12 @@
       <c r="F294" t="n">
         <v>28.902587890625</v>
       </c>
+      <c r="G294" t="n">
+        <v>28.902587890625</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -6344,6 +8128,12 @@
       <c r="F295" t="n">
         <v>27.95855712890625</v>
       </c>
+      <c r="G295" t="n">
+        <v>27.95855712890625</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -6364,6 +8154,12 @@
       <c r="F296" t="n">
         <v>26.77462768554688</v>
       </c>
+      <c r="G296" t="n">
+        <v>26.77462768554688</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -6384,6 +8180,12 @@
       <c r="F297" t="n">
         <v>25.41268920898438</v>
       </c>
+      <c r="G297" t="n">
+        <v>25.41268920898438</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -6404,6 +8206,12 @@
       <c r="F298" t="n">
         <v>23.77548217773438</v>
       </c>
+      <c r="G298" t="n">
+        <v>23.77548217773438</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -6424,6 +8232,12 @@
       <c r="F299" t="n">
         <v>21.80029296875</v>
       </c>
+      <c r="G299" t="n">
+        <v>21.80029296875</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -6444,6 +8258,12 @@
       <c r="F300" t="n">
         <v>20.2955322265625</v>
       </c>
+      <c r="G300" t="n">
+        <v>20.2955322265625</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -6464,6 +8284,12 @@
       <c r="F301" t="n">
         <v>19.13516235351562</v>
       </c>
+      <c r="G301" t="n">
+        <v>19.13516235351562</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -6484,6 +8310,12 @@
       <c r="F302" t="n">
         <v>17.95040893554688</v>
       </c>
+      <c r="G302" t="n">
+        <v>17.95040893554688</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -6504,6 +8336,12 @@
       <c r="F303" t="n">
         <v>17.19488525390625</v>
       </c>
+      <c r="G303" t="n">
+        <v>17.19488525390625</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -6524,6 +8362,12 @@
       <c r="F304" t="n">
         <v>18.05654907226562</v>
       </c>
+      <c r="G304" t="n">
+        <v>18.05654907226562</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -6544,6 +8388,12 @@
       <c r="F305" t="n">
         <v>19.09805297851562</v>
       </c>
+      <c r="G305" t="n">
+        <v>19.09805297851562</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -6564,6 +8414,12 @@
       <c r="F306" t="n">
         <v>18.76394653320312</v>
       </c>
+      <c r="G306" t="n">
+        <v>18.76394653320312</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -6584,6 +8440,12 @@
       <c r="F307" t="n">
         <v>15.52774047851562</v>
       </c>
+      <c r="G307" t="n">
+        <v>15.52774047851562</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -6604,6 +8466,12 @@
       <c r="F308" t="n">
         <v>13.59567260742188</v>
       </c>
+      <c r="G308" t="n">
+        <v>13.59567260742188</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -6624,6 +8492,12 @@
       <c r="F309" t="n">
         <v>12.44500732421875</v>
       </c>
+      <c r="G309" t="n">
+        <v>12.44500732421875</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -6644,6 +8518,12 @@
       <c r="F310" t="n">
         <v>11.15655517578125</v>
       </c>
+      <c r="G310" t="n">
+        <v>11.15655517578125</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -6664,6 +8544,12 @@
       <c r="F311" t="n">
         <v>10.64816284179688</v>
       </c>
+      <c r="G311" t="n">
+        <v>10.64816284179688</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -6684,6 +8570,12 @@
       <c r="F312" t="n">
         <v>11.18798828125</v>
       </c>
+      <c r="G312" t="n">
+        <v>11.18798828125</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -6704,6 +8596,12 @@
       <c r="F313" t="n">
         <v>11.17257690429688</v>
       </c>
+      <c r="G313" t="n">
+        <v>11.17257690429688</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -6724,6 +8622,12 @@
       <c r="F314" t="n">
         <v>11.43704223632812</v>
       </c>
+      <c r="G314" t="n">
+        <v>11.43704223632812</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -6744,6 +8648,12 @@
       <c r="F315" t="n">
         <v>12.22430419921875</v>
       </c>
+      <c r="G315" t="n">
+        <v>12.22430419921875</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -6764,6 +8674,12 @@
       <c r="F316" t="n">
         <v>11.90353393554688</v>
       </c>
+      <c r="G316" t="n">
+        <v>11.90353393554688</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -6784,6 +8700,12 @@
       <c r="F317" t="n">
         <v>10.72134399414062</v>
       </c>
+      <c r="G317" t="n">
+        <v>10.72134399414062</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -6804,6 +8726,12 @@
       <c r="F318" t="n">
         <v>9.13177490234375</v>
       </c>
+      <c r="G318" t="n">
+        <v>9.13177490234375</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -6824,6 +8752,12 @@
       <c r="F319" t="n">
         <v>7.3701171875</v>
       </c>
+      <c r="G319" t="n">
+        <v>7.3701171875</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -6844,6 +8778,12 @@
       <c r="F320" t="n">
         <v>4.10894775390625</v>
       </c>
+      <c r="G320" t="n">
+        <v>4.10894775390625</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -6864,6 +8804,12 @@
       <c r="F321" t="n">
         <v>0.47125244140625</v>
       </c>
+      <c r="G321" t="n">
+        <v>0.47125244140625</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -6884,6 +8830,12 @@
       <c r="F322" t="n">
         <v>-2.773529052734375</v>
       </c>
+      <c r="G322" t="n">
+        <v>2.773529052734375</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -6904,6 +8856,12 @@
       <c r="F323" t="n">
         <v>-5.474517822265625</v>
       </c>
+      <c r="G323" t="n">
+        <v>5.474517822265625</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -6924,6 +8882,12 @@
       <c r="F324" t="n">
         <v>-8.028564453125</v>
       </c>
+      <c r="G324" t="n">
+        <v>8.028564453125</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -6944,6 +8908,12 @@
       <c r="F325" t="n">
         <v>-8.783294677734375</v>
       </c>
+      <c r="G325" t="n">
+        <v>8.783294677734375</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -6964,6 +8934,12 @@
       <c r="F326" t="n">
         <v>-9.697418212890625</v>
       </c>
+      <c r="G326" t="n">
+        <v>9.697418212890625</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -6984,6 +8960,12 @@
       <c r="F327" t="n">
         <v>-10.70538330078125</v>
       </c>
+      <c r="G327" t="n">
+        <v>10.70538330078125</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7004,6 +8986,12 @@
       <c r="F328" t="n">
         <v>-10.80966186523438</v>
       </c>
+      <c r="G328" t="n">
+        <v>10.80966186523438</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7024,6 +9012,12 @@
       <c r="F329" t="n">
         <v>-12.09478759765625</v>
       </c>
+      <c r="G329" t="n">
+        <v>12.09478759765625</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7044,6 +9038,12 @@
       <c r="F330" t="n">
         <v>-12.0164794921875</v>
       </c>
+      <c r="G330" t="n">
+        <v>12.0164794921875</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -7064,6 +9064,12 @@
       <c r="F331" t="n">
         <v>-10.85995483398438</v>
       </c>
+      <c r="G331" t="n">
+        <v>10.85995483398438</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -7084,6 +9090,12 @@
       <c r="F332" t="n">
         <v>-9.06549072265625</v>
       </c>
+      <c r="G332" t="n">
+        <v>9.06549072265625</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -7104,6 +9116,12 @@
       <c r="F333" t="n">
         <v>-6.8570556640625</v>
       </c>
+      <c r="G333" t="n">
+        <v>6.8570556640625</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -7124,6 +9142,12 @@
       <c r="F334" t="n">
         <v>-4.223785400390625</v>
       </c>
+      <c r="G334" t="n">
+        <v>4.223785400390625</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -7144,6 +9168,12 @@
       <c r="F335" t="n">
         <v>-0.615570068359375</v>
       </c>
+      <c r="G335" t="n">
+        <v>0.615570068359375</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -7164,6 +9194,12 @@
       <c r="F336" t="n">
         <v>5.82110595703125</v>
       </c>
+      <c r="G336" t="n">
+        <v>5.82110595703125</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -7184,6 +9220,12 @@
       <c r="F337" t="n">
         <v>11.02615356445312</v>
       </c>
+      <c r="G337" t="n">
+        <v>11.02615356445312</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -7204,6 +9246,12 @@
       <c r="F338" t="n">
         <v>14.59088134765625</v>
       </c>
+      <c r="G338" t="n">
+        <v>14.59088134765625</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -7224,6 +9272,12 @@
       <c r="F339" t="n">
         <v>16.02447509765625</v>
       </c>
+      <c r="G339" t="n">
+        <v>16.02447509765625</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -7244,6 +9298,12 @@
       <c r="F340" t="n">
         <v>14.516845703125</v>
       </c>
+      <c r="G340" t="n">
+        <v>14.516845703125</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -7264,6 +9324,12 @@
       <c r="F341" t="n">
         <v>8.42462158203125</v>
       </c>
+      <c r="G341" t="n">
+        <v>8.42462158203125</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -7284,6 +9350,12 @@
       <c r="F342" t="n">
         <v>-0.159637451171875</v>
       </c>
+      <c r="G342" t="n">
+        <v>0.159637451171875</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -7304,6 +9376,12 @@
       <c r="F343" t="n">
         <v>-5.533973693847656</v>
       </c>
+      <c r="G343" t="n">
+        <v>5.533973693847656</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -7324,6 +9402,12 @@
       <c r="F344" t="n">
         <v>14.07248687744141</v>
       </c>
+      <c r="G344" t="n">
+        <v>14.07248687744141</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -7344,6 +9428,12 @@
       <c r="F345" t="n">
         <v>18.27492523193359</v>
       </c>
+      <c r="G345" t="n">
+        <v>18.27492523193359</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -7364,6 +9454,12 @@
       <c r="F346" t="n">
         <v>20.52528381347656</v>
       </c>
+      <c r="G346" t="n">
+        <v>20.52528381347656</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -7384,6 +9480,12 @@
       <c r="F347" t="n">
         <v>21.38002014160156</v>
       </c>
+      <c r="G347" t="n">
+        <v>21.38002014160156</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -7404,6 +9506,12 @@
       <c r="F348" t="n">
         <v>21.57962036132812</v>
       </c>
+      <c r="G348" t="n">
+        <v>21.57962036132812</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -7424,6 +9532,12 @@
       <c r="F349" t="n">
         <v>16.28086853027344</v>
       </c>
+      <c r="G349" t="n">
+        <v>16.28086853027344</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -7444,6 +9558,12 @@
       <c r="F350" t="n">
         <v>19.89585876464844</v>
       </c>
+      <c r="G350" t="n">
+        <v>19.89585876464844</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -7464,6 +9584,12 @@
       <c r="F351" t="n">
         <v>20.08761596679688</v>
       </c>
+      <c r="G351" t="n">
+        <v>20.08761596679688</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -7484,6 +9610,12 @@
       <c r="F352" t="n">
         <v>18.66584777832031</v>
       </c>
+      <c r="G352" t="n">
+        <v>18.66584777832031</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -7504,6 +9636,12 @@
       <c r="F353" t="n">
         <v>18.45594787597656</v>
       </c>
+      <c r="G353" t="n">
+        <v>18.45594787597656</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -7524,6 +9662,12 @@
       <c r="F354" t="n">
         <v>16.4124755859375</v>
       </c>
+      <c r="G354" t="n">
+        <v>16.4124755859375</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -7544,6 +9688,12 @@
       <c r="F355" t="n">
         <v>16.62937927246094</v>
       </c>
+      <c r="G355" t="n">
+        <v>16.62937927246094</v>
+      </c>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -7564,6 +9714,12 @@
       <c r="F356" t="n">
         <v>14.66873168945312</v>
       </c>
+      <c r="G356" t="n">
+        <v>14.66873168945312</v>
+      </c>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -7584,6 +9740,12 @@
       <c r="F357" t="n">
         <v>14.27040100097656</v>
       </c>
+      <c r="G357" t="n">
+        <v>14.27040100097656</v>
+      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -7604,6 +9766,12 @@
       <c r="F358" t="n">
         <v>12.37594604492188</v>
       </c>
+      <c r="G358" t="n">
+        <v>12.37594604492188</v>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -7624,6 +9792,12 @@
       <c r="F359" t="n">
         <v>11.98448181152344</v>
       </c>
+      <c r="G359" t="n">
+        <v>11.98448181152344</v>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -7644,6 +9818,12 @@
       <c r="F360" t="n">
         <v>9.46337890625</v>
       </c>
+      <c r="G360" t="n">
+        <v>9.46337890625</v>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -7664,6 +9844,12 @@
       <c r="F361" t="n">
         <v>8.8162841796875</v>
       </c>
+      <c r="G361" t="n">
+        <v>8.8162841796875</v>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -7684,6 +9870,12 @@
       <c r="F362" t="n">
         <v>8.290603637695312</v>
       </c>
+      <c r="G362" t="n">
+        <v>8.290603637695312</v>
+      </c>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -7704,6 +9896,12 @@
       <c r="F363" t="n">
         <v>7.993759155273438</v>
       </c>
+      <c r="G363" t="n">
+        <v>7.993759155273438</v>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -7724,6 +9922,12 @@
       <c r="F364" t="n">
         <v>9.396621704101562</v>
       </c>
+      <c r="G364" t="n">
+        <v>9.396621704101562</v>
+      </c>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -7744,6 +9948,12 @@
       <c r="F365" t="n">
         <v>9.297592163085938</v>
       </c>
+      <c r="G365" t="n">
+        <v>9.297592163085938</v>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -7764,6 +9974,12 @@
       <c r="F366" t="n">
         <v>10.22328186035156</v>
       </c>
+      <c r="G366" t="n">
+        <v>10.22328186035156</v>
+      </c>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -7784,6 +10000,12 @@
       <c r="F367" t="n">
         <v>9.80255126953125</v>
       </c>
+      <c r="G367" t="n">
+        <v>9.80255126953125</v>
+      </c>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -7804,6 +10026,12 @@
       <c r="F368" t="n">
         <v>11.41709899902344</v>
       </c>
+      <c r="G368" t="n">
+        <v>11.41709899902344</v>
+      </c>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -7824,6 +10052,12 @@
       <c r="F369" t="n">
         <v>11.36279296875</v>
       </c>
+      <c r="G369" t="n">
+        <v>11.36279296875</v>
+      </c>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -7844,6 +10078,12 @@
       <c r="F370" t="n">
         <v>11.69837951660156</v>
       </c>
+      <c r="G370" t="n">
+        <v>11.69837951660156</v>
+      </c>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -7864,6 +10104,12 @@
       <c r="F371" t="n">
         <v>10.84475708007812</v>
       </c>
+      <c r="G371" t="n">
+        <v>10.84475708007812</v>
+      </c>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -7884,6 +10130,12 @@
       <c r="F372" t="n">
         <v>6.909576416015625</v>
       </c>
+      <c r="G372" t="n">
+        <v>6.909576416015625</v>
+      </c>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -7904,6 +10156,12 @@
       <c r="F373" t="n">
         <v>1.914581298828125</v>
       </c>
+      <c r="G373" t="n">
+        <v>1.914581298828125</v>
+      </c>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -7924,6 +10182,12 @@
       <c r="F374" t="n">
         <v>-2.065139770507812</v>
       </c>
+      <c r="G374" t="n">
+        <v>2.065139770507812</v>
+      </c>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -7944,6 +10208,12 @@
       <c r="F375" t="n">
         <v>-4.594772338867188</v>
       </c>
+      <c r="G375" t="n">
+        <v>4.594772338867188</v>
+      </c>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -7964,6 +10234,12 @@
       <c r="F376" t="n">
         <v>-5.31146240234375</v>
       </c>
+      <c r="G376" t="n">
+        <v>5.31146240234375</v>
+      </c>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -7984,6 +10260,12 @@
       <c r="F377" t="n">
         <v>-6.912887573242188</v>
       </c>
+      <c r="G377" t="n">
+        <v>6.912887573242188</v>
+      </c>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -8004,6 +10286,12 @@
       <c r="F378" t="n">
         <v>-7.232650756835938</v>
       </c>
+      <c r="G378" t="n">
+        <v>7.232650756835938</v>
+      </c>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -8024,6 +10312,12 @@
       <c r="F379" t="n">
         <v>-9.549209594726562</v>
       </c>
+      <c r="G379" t="n">
+        <v>9.549209594726562</v>
+      </c>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -8044,6 +10338,12 @@
       <c r="F380" t="n">
         <v>-10.9833984375</v>
       </c>
+      <c r="G380" t="n">
+        <v>10.9833984375</v>
+      </c>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -8064,6 +10364,12 @@
       <c r="F381" t="n">
         <v>-12.02784729003906</v>
       </c>
+      <c r="G381" t="n">
+        <v>12.02784729003906</v>
+      </c>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -8084,6 +10390,12 @@
       <c r="F382" t="n">
         <v>-12.29716491699219</v>
       </c>
+      <c r="G382" t="n">
+        <v>12.29716491699219</v>
+      </c>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -8104,6 +10416,12 @@
       <c r="F383" t="n">
         <v>-13.25674438476562</v>
       </c>
+      <c r="G383" t="n">
+        <v>13.25674438476562</v>
+      </c>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -8124,6 +10442,12 @@
       <c r="F384" t="n">
         <v>-13.44020080566406</v>
       </c>
+      <c r="G384" t="n">
+        <v>13.44020080566406</v>
+      </c>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -8144,6 +10468,12 @@
       <c r="F385" t="n">
         <v>-14.23057556152344</v>
       </c>
+      <c r="G385" t="n">
+        <v>14.23057556152344</v>
+      </c>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -8164,6 +10494,12 @@
       <c r="F386" t="n">
         <v>-12.94813537597656</v>
       </c>
+      <c r="G386" t="n">
+        <v>12.94813537597656</v>
+      </c>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -8184,6 +10520,12 @@
       <c r="F387" t="n">
         <v>-12.82870483398438</v>
       </c>
+      <c r="G387" t="n">
+        <v>12.82870483398438</v>
+      </c>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -8204,6 +10546,12 @@
       <c r="F388" t="n">
         <v>-13.05447387695312</v>
       </c>
+      <c r="G388" t="n">
+        <v>13.05447387695312</v>
+      </c>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -8224,6 +10572,12 @@
       <c r="F389" t="n">
         <v>-11.75198364257812</v>
       </c>
+      <c r="G389" t="n">
+        <v>11.75198364257812</v>
+      </c>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -8244,6 +10598,12 @@
       <c r="F390" t="n">
         <v>-11.92341613769531</v>
       </c>
+      <c r="G390" t="n">
+        <v>11.92341613769531</v>
+      </c>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -8264,6 +10624,12 @@
       <c r="F391" t="n">
         <v>-12.1953125</v>
       </c>
+      <c r="G391" t="n">
+        <v>12.1953125</v>
+      </c>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -8284,6 +10650,12 @@
       <c r="F392" t="n">
         <v>-12.33883666992188</v>
       </c>
+      <c r="G392" t="n">
+        <v>12.33883666992188</v>
+      </c>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -8304,6 +10676,12 @@
       <c r="F393" t="n">
         <v>-11.88211059570312</v>
       </c>
+      <c r="G393" t="n">
+        <v>11.88211059570312</v>
+      </c>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -8324,6 +10702,12 @@
       <c r="F394" t="n">
         <v>-11.80410766601562</v>
       </c>
+      <c r="G394" t="n">
+        <v>11.80410766601562</v>
+      </c>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -8344,6 +10728,12 @@
       <c r="F395" t="n">
         <v>-11.18002319335938</v>
       </c>
+      <c r="G395" t="n">
+        <v>11.18002319335938</v>
+      </c>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -8364,6 +10754,12 @@
       <c r="F396" t="n">
         <v>-9.078277587890625</v>
       </c>
+      <c r="G396" t="n">
+        <v>9.078277587890625</v>
+      </c>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -8384,6 +10780,12 @@
       <c r="F397" t="n">
         <v>-9.19000244140625</v>
       </c>
+      <c r="G397" t="n">
+        <v>9.19000244140625</v>
+      </c>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -8404,6 +10806,12 @@
       <c r="F398" t="n">
         <v>-7.517425537109375</v>
       </c>
+      <c r="G398" t="n">
+        <v>7.517425537109375</v>
+      </c>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -8424,6 +10832,12 @@
       <c r="F399" t="n">
         <v>-6.108978271484375</v>
       </c>
+      <c r="G399" t="n">
+        <v>6.108978271484375</v>
+      </c>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -8444,6 +10858,12 @@
       <c r="F400" t="n">
         <v>-4.2266845703125</v>
       </c>
+      <c r="G400" t="n">
+        <v>4.2266845703125</v>
+      </c>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -8464,6 +10884,12 @@
       <c r="F401" t="n">
         <v>-3.13397216796875</v>
       </c>
+      <c r="G401" t="n">
+        <v>3.13397216796875</v>
+      </c>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -8484,6 +10910,12 @@
       <c r="F402" t="n">
         <v>-1.062896728515625</v>
       </c>
+      <c r="G402" t="n">
+        <v>1.062896728515625</v>
+      </c>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -8504,6 +10936,12 @@
       <c r="F403" t="n">
         <v>0.45269775390625</v>
       </c>
+      <c r="G403" t="n">
+        <v>0.45269775390625</v>
+      </c>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -8524,6 +10962,12 @@
       <c r="F404" t="n">
         <v>1.201904296875</v>
       </c>
+      <c r="G404" t="n">
+        <v>1.201904296875</v>
+      </c>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -8544,6 +10988,12 @@
       <c r="F405" t="n">
         <v>21.42350006103516</v>
       </c>
+      <c r="G405" t="n">
+        <v>21.42350006103516</v>
+      </c>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -8564,6 +11014,12 @@
       <c r="F406" t="n">
         <v>23.20166015625</v>
       </c>
+      <c r="G406" t="n">
+        <v>23.20166015625</v>
+      </c>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -8584,6 +11040,12 @@
       <c r="F407" t="n">
         <v>22.98643493652344</v>
       </c>
+      <c r="G407" t="n">
+        <v>22.98643493652344</v>
+      </c>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -8604,6 +11066,12 @@
       <c r="F408" t="n">
         <v>22.68234634399414</v>
       </c>
+      <c r="G408" t="n">
+        <v>22.68234634399414</v>
+      </c>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -8624,6 +11092,12 @@
       <c r="F409" t="n">
         <v>21.05961227416992</v>
       </c>
+      <c r="G409" t="n">
+        <v>21.05961227416992</v>
+      </c>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -8644,6 +11118,12 @@
       <c r="F410" t="n">
         <v>20.52995681762695</v>
       </c>
+      <c r="G410" t="n">
+        <v>20.52995681762695</v>
+      </c>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -8664,6 +11144,12 @@
       <c r="F411" t="n">
         <v>18.8458137512207</v>
       </c>
+      <c r="G411" t="n">
+        <v>18.8458137512207</v>
+      </c>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -8684,6 +11170,12 @@
       <c r="F412" t="n">
         <v>17.11467742919922</v>
       </c>
+      <c r="G412" t="n">
+        <v>17.11467742919922</v>
+      </c>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -8704,6 +11196,12 @@
       <c r="F413" t="n">
         <v>14.87394714355469</v>
       </c>
+      <c r="G413" t="n">
+        <v>14.87394714355469</v>
+      </c>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -8724,6 +11222,12 @@
       <c r="F414" t="n">
         <v>13.57395553588867</v>
       </c>
+      <c r="G414" t="n">
+        <v>13.57395553588867</v>
+      </c>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -8744,6 +11248,12 @@
       <c r="F415" t="n">
         <v>10.85052108764648</v>
       </c>
+      <c r="G415" t="n">
+        <v>10.85052108764648</v>
+      </c>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -8764,6 +11274,12 @@
       <c r="F416" t="n">
         <v>9.222743988037109</v>
       </c>
+      <c r="G416" t="n">
+        <v>9.222743988037109</v>
+      </c>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -8784,6 +11300,12 @@
       <c r="F417" t="n">
         <v>5.913120269775391</v>
       </c>
+      <c r="G417" t="n">
+        <v>5.913120269775391</v>
+      </c>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -8804,6 +11326,12 @@
       <c r="F418" t="n">
         <v>3.745536804199219</v>
       </c>
+      <c r="G418" t="n">
+        <v>3.745536804199219</v>
+      </c>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -8824,6 +11352,12 @@
       <c r="F419" t="n">
         <v>1.260303497314453</v>
       </c>
+      <c r="G419" t="n">
+        <v>1.260303497314453</v>
+      </c>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -8844,6 +11378,12 @@
       <c r="F420" t="n">
         <v>0.029052734375</v>
       </c>
+      <c r="G420" t="n">
+        <v>0.029052734375</v>
+      </c>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -8864,6 +11404,12 @@
       <c r="F421" t="n">
         <v>-1.188407897949219</v>
       </c>
+      <c r="G421" t="n">
+        <v>1.188407897949219</v>
+      </c>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -8884,6 +11430,12 @@
       <c r="F422" t="n">
         <v>-2.298057556152344</v>
       </c>
+      <c r="G422" t="n">
+        <v>2.298057556152344</v>
+      </c>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -8904,6 +11456,12 @@
       <c r="F423" t="n">
         <v>-3.250827789306641</v>
       </c>
+      <c r="G423" t="n">
+        <v>3.250827789306641</v>
+      </c>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -8924,6 +11482,12 @@
       <c r="F424" t="n">
         <v>-3.772602081298828</v>
       </c>
+      <c r="G424" t="n">
+        <v>3.772602081298828</v>
+      </c>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -8944,6 +11508,12 @@
       <c r="F425" t="n">
         <v>-4.936347961425781</v>
       </c>
+      <c r="G425" t="n">
+        <v>4.936347961425781</v>
+      </c>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -8964,6 +11534,12 @@
       <c r="F426" t="n">
         <v>-5.05279541015625</v>
       </c>
+      <c r="G426" t="n">
+        <v>5.05279541015625</v>
+      </c>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -8984,6 +11560,12 @@
       <c r="F427" t="n">
         <v>-6.714065551757812</v>
       </c>
+      <c r="G427" t="n">
+        <v>6.714065551757812</v>
+      </c>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -9004,6 +11586,12 @@
       <c r="F428" t="n">
         <v>-8.422225952148438</v>
       </c>
+      <c r="G428" t="n">
+        <v>8.422225952148438</v>
+      </c>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -9024,6 +11612,12 @@
       <c r="F429" t="n">
         <v>-9.605918884277344</v>
       </c>
+      <c r="G429" t="n">
+        <v>9.605918884277344</v>
+      </c>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -9044,6 +11638,12 @@
       <c r="F430" t="n">
         <v>-11.26741790771484</v>
       </c>
+      <c r="G430" t="n">
+        <v>11.26741790771484</v>
+      </c>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -9064,6 +11664,12 @@
       <c r="F431" t="n">
         <v>-12.93374633789062</v>
       </c>
+      <c r="G431" t="n">
+        <v>12.93374633789062</v>
+      </c>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -9084,6 +11690,12 @@
       <c r="F432" t="n">
         <v>-13.26433563232422</v>
       </c>
+      <c r="G432" t="n">
+        <v>13.26433563232422</v>
+      </c>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -9104,6 +11716,12 @@
       <c r="F433" t="n">
         <v>-13.57743072509766</v>
       </c>
+      <c r="G433" t="n">
+        <v>13.57743072509766</v>
+      </c>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -9124,6 +11742,12 @@
       <c r="F434" t="n">
         <v>-13.64214324951172</v>
       </c>
+      <c r="G434" t="n">
+        <v>13.64214324951172</v>
+      </c>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -9144,6 +11768,12 @@
       <c r="F435" t="n">
         <v>-13.871826171875</v>
       </c>
+      <c r="G435" t="n">
+        <v>13.871826171875</v>
+      </c>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -9164,6 +11794,12 @@
       <c r="F436" t="n">
         <v>-14.39362335205078</v>
       </c>
+      <c r="G436" t="n">
+        <v>14.39362335205078</v>
+      </c>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -9184,6 +11820,12 @@
       <c r="F437" t="n">
         <v>-15.31317901611328</v>
       </c>
+      <c r="G437" t="n">
+        <v>15.31317901611328</v>
+      </c>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -9204,6 +11846,12 @@
       <c r="F438" t="n">
         <v>-14.25617218017578</v>
       </c>
+      <c r="G438" t="n">
+        <v>14.25617218017578</v>
+      </c>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -9224,6 +11872,12 @@
       <c r="F439" t="n">
         <v>-11.69095611572266</v>
       </c>
+      <c r="G439" t="n">
+        <v>11.69095611572266</v>
+      </c>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -9244,6 +11898,12 @@
       <c r="F440" t="n">
         <v>-9.188224792480469</v>
       </c>
+      <c r="G440" t="n">
+        <v>9.188224792480469</v>
+      </c>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -9264,6 +11924,12 @@
       <c r="F441" t="n">
         <v>-6.959617614746094</v>
       </c>
+      <c r="G441" t="n">
+        <v>6.959617614746094</v>
+      </c>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -9284,6 +11950,12 @@
       <c r="F442" t="n">
         <v>-4.455497741699219</v>
       </c>
+      <c r="G442" t="n">
+        <v>4.455497741699219</v>
+      </c>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -9304,6 +11976,12 @@
       <c r="F443" t="n">
         <v>-2.36895751953125</v>
       </c>
+      <c r="G443" t="n">
+        <v>2.36895751953125</v>
+      </c>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -9324,6 +12002,12 @@
       <c r="F444" t="n">
         <v>-0.1101913452148438</v>
       </c>
+      <c r="G444" t="n">
+        <v>0.1101913452148438</v>
+      </c>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -9344,6 +12028,12 @@
       <c r="F445" t="n">
         <v>2.013313293457031</v>
       </c>
+      <c r="G445" t="n">
+        <v>2.013313293457031</v>
+      </c>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -9364,6 +12054,12 @@
       <c r="F446" t="n">
         <v>4.464454650878906</v>
       </c>
+      <c r="G446" t="n">
+        <v>4.464454650878906</v>
+      </c>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -9384,6 +12080,12 @@
       <c r="F447" t="n">
         <v>5.749259948730469</v>
       </c>
+      <c r="G447" t="n">
+        <v>5.749259948730469</v>
+      </c>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -9404,6 +12106,12 @@
       <c r="F448" t="n">
         <v>6.573997497558594</v>
       </c>
+      <c r="G448" t="n">
+        <v>6.573997497558594</v>
+      </c>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -9424,6 +12132,12 @@
       <c r="F449" t="n">
         <v>7.979194641113281</v>
       </c>
+      <c r="G449" t="n">
+        <v>7.979194641113281</v>
+      </c>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -9444,6 +12158,12 @@
       <c r="F450" t="n">
         <v>8.650405883789062</v>
       </c>
+      <c r="G450" t="n">
+        <v>8.650405883789062</v>
+      </c>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -9464,6 +12184,12 @@
       <c r="F451" t="n">
         <v>10.25283050537109</v>
       </c>
+      <c r="G451" t="n">
+        <v>10.25283050537109</v>
+      </c>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -9484,6 +12210,12 @@
       <c r="F452" t="n">
         <v>11.22129821777344</v>
       </c>
+      <c r="G452" t="n">
+        <v>11.22129821777344</v>
+      </c>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -9504,6 +12236,12 @@
       <c r="F453" t="n">
         <v>10.81257629394531</v>
       </c>
+      <c r="G453" t="n">
+        <v>10.81257629394531</v>
+      </c>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -9524,6 +12262,12 @@
       <c r="F454" t="n">
         <v>12.32597351074219</v>
       </c>
+      <c r="G454" t="n">
+        <v>12.32597351074219</v>
+      </c>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -9544,6 +12288,12 @@
       <c r="F455" t="n">
         <v>12.48603057861328</v>
       </c>
+      <c r="G455" t="n">
+        <v>12.48603057861328</v>
+      </c>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -9564,6 +12314,12 @@
       <c r="F456" t="n">
         <v>14.01937103271484</v>
       </c>
+      <c r="G456" t="n">
+        <v>14.01937103271484</v>
+      </c>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -9584,6 +12340,12 @@
       <c r="F457" t="n">
         <v>15.06019592285156</v>
       </c>
+      <c r="G457" t="n">
+        <v>15.06019592285156</v>
+      </c>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -9604,6 +12366,12 @@
       <c r="F458" t="n">
         <v>16.92227172851562</v>
       </c>
+      <c r="G458" t="n">
+        <v>16.92227172851562</v>
+      </c>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -9624,6 +12392,12 @@
       <c r="F459" t="n">
         <v>17.03026580810547</v>
       </c>
+      <c r="G459" t="n">
+        <v>17.03026580810547</v>
+      </c>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -9644,6 +12418,12 @@
       <c r="F460" t="n">
         <v>17.74595642089844</v>
       </c>
+      <c r="G460" t="n">
+        <v>17.74595642089844</v>
+      </c>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -9664,6 +12444,12 @@
       <c r="F461" t="n">
         <v>17.02434539794922</v>
       </c>
+      <c r="G461" t="n">
+        <v>17.02434539794922</v>
+      </c>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -9684,6 +12470,12 @@
       <c r="F462" t="n">
         <v>16.19181823730469</v>
       </c>
+      <c r="G462" t="n">
+        <v>16.19181823730469</v>
+      </c>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -9704,6 +12496,12 @@
       <c r="F463" t="n">
         <v>15.06453704833984</v>
       </c>
+      <c r="G463" t="n">
+        <v>15.06453704833984</v>
+      </c>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -9724,6 +12522,12 @@
       <c r="F464" t="n">
         <v>13.68502807617188</v>
       </c>
+      <c r="G464" t="n">
+        <v>13.68502807617188</v>
+      </c>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -9744,6 +12548,12 @@
       <c r="F465" t="n">
         <v>12.45662689208984</v>
       </c>
+      <c r="G465" t="n">
+        <v>12.45662689208984</v>
+      </c>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -9764,6 +12574,12 @@
       <c r="F466" t="n">
         <v>10.95139312744141</v>
       </c>
+      <c r="G466" t="n">
+        <v>10.95139312744141</v>
+      </c>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -9784,6 +12600,12 @@
       <c r="F467" t="n">
         <v>9.570747375488281</v>
       </c>
+      <c r="G467" t="n">
+        <v>9.570747375488281</v>
+      </c>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -9804,6 +12626,12 @@
       <c r="F468" t="n">
         <v>8.436569213867188</v>
       </c>
+      <c r="G468" t="n">
+        <v>8.436569213867188</v>
+      </c>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -9824,6 +12652,12 @@
       <c r="F469" t="n">
         <v>7.403861999511719</v>
       </c>
+      <c r="G469" t="n">
+        <v>7.403861999511719</v>
+      </c>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -9844,6 +12678,12 @@
       <c r="F470" t="n">
         <v>6.81329345703125</v>
       </c>
+      <c r="G470" t="n">
+        <v>6.81329345703125</v>
+      </c>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -9864,6 +12704,12 @@
       <c r="F471" t="n">
         <v>6.307327270507812</v>
       </c>
+      <c r="G471" t="n">
+        <v>6.307327270507812</v>
+      </c>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -9884,6 +12730,12 @@
       <c r="F472" t="n">
         <v>5.568405151367188</v>
       </c>
+      <c r="G472" t="n">
+        <v>5.568405151367188</v>
+      </c>
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -9904,6 +12756,12 @@
       <c r="F473" t="n">
         <v>3.135665893554688</v>
       </c>
+      <c r="G473" t="n">
+        <v>3.135665893554688</v>
+      </c>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -9924,6 +12782,12 @@
       <c r="F474" t="n">
         <v>0.7866668701171875</v>
       </c>
+      <c r="G474" t="n">
+        <v>0.7866668701171875</v>
+      </c>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -9944,6 +12808,12 @@
       <c r="F475" t="n">
         <v>-0.9653549194335938</v>
       </c>
+      <c r="G475" t="n">
+        <v>0.9653549194335938</v>
+      </c>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -9964,6 +12834,12 @@
       <c r="F476" t="n">
         <v>-2.69451904296875</v>
       </c>
+      <c r="G476" t="n">
+        <v>2.69451904296875</v>
+      </c>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -9984,6 +12860,12 @@
       <c r="F477" t="n">
         <v>-3.989425659179688</v>
       </c>
+      <c r="G477" t="n">
+        <v>3.989425659179688</v>
+      </c>
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -10004,6 +12886,12 @@
       <c r="F478" t="n">
         <v>-2.144577026367188</v>
       </c>
+      <c r="G478" t="n">
+        <v>2.144577026367188</v>
+      </c>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -10024,6 +12912,12 @@
       <c r="F479" t="n">
         <v>-3.473464965820312</v>
       </c>
+      <c r="G479" t="n">
+        <v>3.473464965820312</v>
+      </c>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -10044,6 +12938,12 @@
       <c r="F480" t="n">
         <v>-3.26580810546875</v>
       </c>
+      <c r="G480" t="n">
+        <v>3.26580810546875</v>
+      </c>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -10064,6 +12964,12 @@
       <c r="F481" t="n">
         <v>-3.301864624023438</v>
       </c>
+      <c r="G481" t="n">
+        <v>3.301864624023438</v>
+      </c>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -10084,6 +12990,12 @@
       <c r="F482" t="n">
         <v>-3.206344604492188</v>
       </c>
+      <c r="G482" t="n">
+        <v>3.206344604492188</v>
+      </c>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -10104,6 +13016,12 @@
       <c r="F483" t="n">
         <v>-3.29638671875</v>
       </c>
+      <c r="G483" t="n">
+        <v>3.29638671875</v>
+      </c>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -10124,6 +13042,12 @@
       <c r="F484" t="n">
         <v>-3.51373291015625</v>
       </c>
+      <c r="G484" t="n">
+        <v>3.51373291015625</v>
+      </c>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -10144,6 +13068,12 @@
       <c r="F485" t="n">
         <v>-3.921966552734375</v>
       </c>
+      <c r="G485" t="n">
+        <v>3.921966552734375</v>
+      </c>
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -10164,6 +13094,12 @@
       <c r="F486" t="n">
         <v>-4.296142578125</v>
       </c>
+      <c r="G486" t="n">
+        <v>4.296142578125</v>
+      </c>
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -10184,6 +13120,12 @@
       <c r="F487" t="n">
         <v>-4.67071533203125</v>
       </c>
+      <c r="G487" t="n">
+        <v>4.67071533203125</v>
+      </c>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -10204,6 +13146,12 @@
       <c r="F488" t="n">
         <v>-5.096054077148438</v>
       </c>
+      <c r="G488" t="n">
+        <v>5.096054077148438</v>
+      </c>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -10224,6 +13172,12 @@
       <c r="F489" t="n">
         <v>-5.46075439453125</v>
       </c>
+      <c r="G489" t="n">
+        <v>5.46075439453125</v>
+      </c>
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -10244,6 +13198,12 @@
       <c r="F490" t="n">
         <v>-5.855926513671875</v>
       </c>
+      <c r="G490" t="n">
+        <v>5.855926513671875</v>
+      </c>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -10264,6 +13224,12 @@
       <c r="F491" t="n">
         <v>-6.118789672851562</v>
       </c>
+      <c r="G491" t="n">
+        <v>6.118789672851562</v>
+      </c>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -10284,6 +13250,12 @@
       <c r="F492" t="n">
         <v>-7.922882080078125</v>
       </c>
+      <c r="G492" t="n">
+        <v>7.922882080078125</v>
+      </c>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -10304,6 +13276,12 @@
       <c r="F493" t="n">
         <v>-8.226058959960938</v>
       </c>
+      <c r="G493" t="n">
+        <v>8.226058959960938</v>
+      </c>
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -10324,6 +13302,12 @@
       <c r="F494" t="n">
         <v>-7.919418334960938</v>
       </c>
+      <c r="G494" t="n">
+        <v>7.919418334960938</v>
+      </c>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -10344,6 +13328,12 @@
       <c r="F495" t="n">
         <v>-7.564544677734375</v>
       </c>
+      <c r="G495" t="n">
+        <v>7.564544677734375</v>
+      </c>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -10364,6 +13354,12 @@
       <c r="F496" t="n">
         <v>-7.159988403320312</v>
       </c>
+      <c r="G496" t="n">
+        <v>7.159988403320312</v>
+      </c>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -10384,6 +13380,12 @@
       <c r="F497" t="n">
         <v>-8.132888793945312</v>
       </c>
+      <c r="G497" t="n">
+        <v>8.132888793945312</v>
+      </c>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -10404,6 +13406,12 @@
       <c r="F498" t="n">
         <v>-7.564376831054688</v>
       </c>
+      <c r="G498" t="n">
+        <v>7.564376831054688</v>
+      </c>
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -10424,6 +13432,12 @@
       <c r="F499" t="n">
         <v>-7.295608520507812</v>
       </c>
+      <c r="G499" t="n">
+        <v>7.295608520507812</v>
+      </c>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -10444,6 +13458,12 @@
       <c r="F500" t="n">
         <v>-6.617111206054688</v>
       </c>
+      <c r="G500" t="n">
+        <v>6.617111206054688</v>
+      </c>
+      <c r="H500" t="inlineStr"/>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -10464,6 +13484,12 @@
       <c r="F501" t="n">
         <v>-7.364212036132812</v>
       </c>
+      <c r="G501" t="n">
+        <v>7.364212036132812</v>
+      </c>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -10484,6 +13510,12 @@
       <c r="F502" t="n">
         <v>-6.361465454101562</v>
       </c>
+      <c r="G502" t="n">
+        <v>6.361465454101562</v>
+      </c>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -10504,6 +13536,12 @@
       <c r="F503" t="n">
         <v>-6.535675048828125</v>
       </c>
+      <c r="G503" t="n">
+        <v>6.535675048828125</v>
+      </c>
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -10524,6 +13562,12 @@
       <c r="F504" t="n">
         <v>-5.791946411132812</v>
       </c>
+      <c r="G504" t="n">
+        <v>5.791946411132812</v>
+      </c>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -10544,6 +13588,12 @@
       <c r="F505" t="n">
         <v>-5.260177612304688</v>
       </c>
+      <c r="G505" t="n">
+        <v>5.260177612304688</v>
+      </c>
+      <c r="H505" t="inlineStr"/>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -10564,6 +13614,12 @@
       <c r="F506" t="n">
         <v>-4.763641357421875</v>
       </c>
+      <c r="G506" t="n">
+        <v>4.763641357421875</v>
+      </c>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -10584,6 +13640,12 @@
       <c r="F507" t="n">
         <v>-5.382720947265625</v>
       </c>
+      <c r="G507" t="n">
+        <v>5.382720947265625</v>
+      </c>
+      <c r="H507" t="inlineStr"/>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -10604,6 +13666,12 @@
       <c r="F508" t="n">
         <v>-5.168106079101562</v>
       </c>
+      <c r="G508" t="n">
+        <v>5.168106079101562</v>
+      </c>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -10624,6 +13692,12 @@
       <c r="F509" t="n">
         <v>-7.510299682617188</v>
       </c>
+      <c r="G509" t="n">
+        <v>7.510299682617188</v>
+      </c>
+      <c r="H509" t="inlineStr"/>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -10644,6 +13718,12 @@
       <c r="F510" t="n">
         <v>-5.679702758789062</v>
       </c>
+      <c r="G510" t="n">
+        <v>5.679702758789062</v>
+      </c>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -10664,6 +13744,12 @@
       <c r="F511" t="n">
         <v>-5.532196044921875</v>
       </c>
+      <c r="G511" t="n">
+        <v>5.532196044921875</v>
+      </c>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -10684,6 +13770,12 @@
       <c r="F512" t="n">
         <v>-7.072708129882812</v>
       </c>
+      <c r="G512" t="n">
+        <v>7.072708129882812</v>
+      </c>
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -10704,6 +13796,12 @@
       <c r="F513" t="n">
         <v>-6.97979736328125</v>
       </c>
+      <c r="G513" t="n">
+        <v>6.97979736328125</v>
+      </c>
+      <c r="H513" t="inlineStr"/>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -10724,6 +13822,12 @@
       <c r="F514" t="n">
         <v>-8.11846923828125</v>
       </c>
+      <c r="G514" t="n">
+        <v>8.11846923828125</v>
+      </c>
+      <c r="H514" t="inlineStr"/>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -10744,6 +13848,12 @@
       <c r="F515" t="n">
         <v>-7.798614501953125</v>
       </c>
+      <c r="G515" t="n">
+        <v>7.798614501953125</v>
+      </c>
+      <c r="H515" t="inlineStr"/>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -10764,6 +13874,12 @@
       <c r="F516" t="n">
         <v>-7.119827270507812</v>
       </c>
+      <c r="G516" t="n">
+        <v>7.119827270507812</v>
+      </c>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -10784,6 +13900,12 @@
       <c r="F517" t="n">
         <v>-6.220367431640625</v>
       </c>
+      <c r="G517" t="n">
+        <v>6.220367431640625</v>
+      </c>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -10804,6 +13926,12 @@
       <c r="F518" t="n">
         <v>-5.369552612304688</v>
       </c>
+      <c r="G518" t="n">
+        <v>5.369552612304688</v>
+      </c>
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -10824,6 +13952,12 @@
       <c r="F519" t="n">
         <v>-5.218673706054688</v>
       </c>
+      <c r="G519" t="n">
+        <v>5.218673706054688</v>
+      </c>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -10844,6 +13978,12 @@
       <c r="F520" t="n">
         <v>-3.23895263671875</v>
       </c>
+      <c r="G520" t="n">
+        <v>3.23895263671875</v>
+      </c>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -10864,6 +14004,12 @@
       <c r="F521" t="n">
         <v>-2.023345947265625</v>
       </c>
+      <c r="G521" t="n">
+        <v>2.023345947265625</v>
+      </c>
+      <c r="H521" t="inlineStr"/>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -10884,6 +14030,12 @@
       <c r="F522" t="n">
         <v>0.2739715576171875</v>
       </c>
+      <c r="G522" t="n">
+        <v>0.2739715576171875</v>
+      </c>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -10904,6 +14056,12 @@
       <c r="F523" t="n">
         <v>2.508041381835938</v>
       </c>
+      <c r="G523" t="n">
+        <v>2.508041381835938</v>
+      </c>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -10924,6 +14082,12 @@
       <c r="F524" t="n">
         <v>4.6004638671875</v>
       </c>
+      <c r="G524" t="n">
+        <v>4.6004638671875</v>
+      </c>
+      <c r="H524" t="inlineStr"/>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -10944,6 +14108,12 @@
       <c r="F525" t="n">
         <v>6.57769775390625</v>
       </c>
+      <c r="G525" t="n">
+        <v>6.57769775390625</v>
+      </c>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -10964,6 +14134,12 @@
       <c r="F526" t="n">
         <v>7.973648071289062</v>
       </c>
+      <c r="G526" t="n">
+        <v>7.973648071289062</v>
+      </c>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -10984,6 +14160,12 @@
       <c r="F527" t="n">
         <v>6.972091674804688</v>
       </c>
+      <c r="G527" t="n">
+        <v>6.972091674804688</v>
+      </c>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -11004,6 +14186,12 @@
       <c r="F528" t="n">
         <v>6.6622314453125</v>
       </c>
+      <c r="G528" t="n">
+        <v>6.6622314453125</v>
+      </c>
+      <c r="H528" t="inlineStr"/>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -11024,6 +14212,12 @@
       <c r="F529" t="n">
         <v>5.488235473632812</v>
       </c>
+      <c r="G529" t="n">
+        <v>5.488235473632812</v>
+      </c>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -11044,6 +14238,12 @@
       <c r="F530" t="n">
         <v>4.591873168945312</v>
       </c>
+      <c r="G530" t="n">
+        <v>4.591873168945312</v>
+      </c>
+      <c r="H530" t="inlineStr"/>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -11064,6 +14264,12 @@
       <c r="F531" t="n">
         <v>2.3648681640625</v>
       </c>
+      <c r="G531" t="n">
+        <v>2.3648681640625</v>
+      </c>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -11084,6 +14290,12 @@
       <c r="F532" t="n">
         <v>1.107025146484375</v>
       </c>
+      <c r="G532" t="n">
+        <v>1.107025146484375</v>
+      </c>
+      <c r="H532" t="inlineStr"/>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
